--- a/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-cmo-blood-electrolyte-measurement</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4474,7 +4474,7 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4834,7 +4834,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5076,7 +5076,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5926,7 +5926,7 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6286,7 +6286,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6528,7 +6528,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -7378,7 +7378,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7738,7 +7738,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -7980,7 +7980,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8830,7 +8830,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9190,7 +9190,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9432,7 +9432,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -10282,7 +10282,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10642,7 +10642,7 @@
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -10884,7 +10884,7 @@
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
@@ -11734,7 +11734,7 @@
         <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -12094,7 +12094,7 @@
         <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
@@ -12336,7 +12336,7 @@
         <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9306,7 +9306,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10758,7 +10758,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -12210,7 +12210,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4054,7 +4054,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>

--- a/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-cmo-blood-phosphate-level</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-blood-phosphate-level</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-cmo-blood-electrolyte-measurement</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-blood-electrolyte-measurement</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-blood-phosphate-level</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-blood-phosphate-level</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-blood-electrolyte-measurement</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-blood-electrolyte-measurement</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-blood-phosphate-level.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-blood-phosphate-level</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-cmo-blood-phosphate-level</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-blood-electrolyte-measurement</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-cmo-blood-electrolyte-measurement</t>
   </si>
   <si>
     <t>Abstract</t>
